--- a/data/pca/factorExposure/factorExposure_2013-02-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-02-01.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001352953004188072</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001809027849029633</v>
+      </c>
+      <c r="C2">
+        <v>-0.03209783116917463</v>
+      </c>
+      <c r="D2">
+        <v>-0.005808916743711435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0004076613535460588</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006351602058116365</v>
+      </c>
+      <c r="C4">
+        <v>-0.08482117765640725</v>
+      </c>
+      <c r="D4">
+        <v>-0.07881318747633037</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0001360538150487905</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01423989552337488</v>
+      </c>
+      <c r="C6">
+        <v>-0.1139315919110123</v>
+      </c>
+      <c r="D6">
+        <v>-0.03376567622695492</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001972756254861769</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.005039689382894235</v>
+      </c>
+      <c r="C7">
+        <v>-0.05771783936484901</v>
+      </c>
+      <c r="D7">
+        <v>-0.03600202157359295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0008169666530821393</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.00583461195658942</v>
+      </c>
+      <c r="C8">
+        <v>-0.03832659785245582</v>
+      </c>
+      <c r="D8">
+        <v>-0.04561299089861038</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003320942880182515</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004468031976847997</v>
+      </c>
+      <c r="C9">
+        <v>-0.07089583831626201</v>
+      </c>
+      <c r="D9">
+        <v>-0.07110959832504958</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002392826949479939</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005400673162295332</v>
+      </c>
+      <c r="C10">
+        <v>-0.05728345166410165</v>
+      </c>
+      <c r="D10">
+        <v>0.1981203266533855</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002555300378048511</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005797881061347807</v>
+      </c>
+      <c r="C11">
+        <v>-0.08074218294741679</v>
+      </c>
+      <c r="D11">
+        <v>-0.06009628412709648</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0004572404125316565</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004096444092458563</v>
+      </c>
+      <c r="C12">
+        <v>-0.06419526968460576</v>
+      </c>
+      <c r="D12">
+        <v>-0.04720210823893835</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002600860942433373</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008733740801846772</v>
+      </c>
+      <c r="C13">
+        <v>-0.06601873757042948</v>
+      </c>
+      <c r="D13">
+        <v>-0.06333065267564951</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.0009769844659645406</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001621794388724707</v>
+      </c>
+      <c r="C14">
+        <v>-0.04641550730643259</v>
+      </c>
+      <c r="D14">
+        <v>-0.006830692551968076</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0007573067253816724</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006099621025290114</v>
+      </c>
+      <c r="C15">
+        <v>-0.04295450674387211</v>
+      </c>
+      <c r="D15">
+        <v>-0.02771113898837387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0009183082612054051</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005108434551665498</v>
+      </c>
+      <c r="C16">
+        <v>-0.06574302757377187</v>
+      </c>
+      <c r="D16">
+        <v>-0.04659995381507404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0002059229742454663</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008892161542852153</v>
+      </c>
+      <c r="C20">
+        <v>-0.06570016900798746</v>
+      </c>
+      <c r="D20">
+        <v>-0.04341341808169334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005555061207982708</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.01004183754736124</v>
+      </c>
+      <c r="C21">
+        <v>-0.02188026426472962</v>
+      </c>
+      <c r="D21">
+        <v>-0.03678194339352137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01685748632484226</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006671101066121609</v>
+      </c>
+      <c r="C22">
+        <v>-0.09491697213182305</v>
+      </c>
+      <c r="D22">
+        <v>-0.1067714778277582</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01715956634144919</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006489201942321068</v>
+      </c>
+      <c r="C23">
+        <v>-0.09570930777020735</v>
+      </c>
+      <c r="D23">
+        <v>-0.1068561184418536</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001298073846569618</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005485786209743194</v>
+      </c>
+      <c r="C24">
+        <v>-0.07634266559200796</v>
+      </c>
+      <c r="D24">
+        <v>-0.06090658052536472</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003902850779528488</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003035521815172636</v>
+      </c>
+      <c r="C25">
+        <v>-0.0782332673246961</v>
+      </c>
+      <c r="D25">
+        <v>-0.06610635552770926</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.004748762054484549</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003646815931991331</v>
+      </c>
+      <c r="C26">
+        <v>-0.04191679562190604</v>
+      </c>
+      <c r="D26">
+        <v>-0.02118034438711974</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.005987746888531855</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.001000271216490679</v>
+      </c>
+      <c r="C28">
+        <v>-0.1058616348620629</v>
+      </c>
+      <c r="D28">
+        <v>0.3159469901216645</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001075018831312676</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003216089497596631</v>
+      </c>
+      <c r="C29">
+        <v>-0.04958385350318729</v>
+      </c>
+      <c r="D29">
+        <v>-0.004553244695910797</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003333928932058576</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009581126215126108</v>
+      </c>
+      <c r="C30">
+        <v>-0.1428098579091306</v>
+      </c>
+      <c r="D30">
+        <v>-0.09275849079800395</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001145803772294952</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006260537617904198</v>
+      </c>
+      <c r="C31">
+        <v>-0.04512764868104301</v>
+      </c>
+      <c r="D31">
+        <v>-0.03002650643877859</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0008395252735949363</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004190922494403139</v>
+      </c>
+      <c r="C32">
+        <v>-0.04146110938384123</v>
+      </c>
+      <c r="D32">
+        <v>-0.01918979259422675</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.00234455040438163</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008369439221099208</v>
+      </c>
+      <c r="C33">
+        <v>-0.08618134210718989</v>
+      </c>
+      <c r="D33">
+        <v>-0.06837777423014096</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004281016972674486</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.004007520482866308</v>
+      </c>
+      <c r="C34">
+        <v>-0.05798819559749935</v>
+      </c>
+      <c r="D34">
+        <v>-0.05318166397554318</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.001776934408682335</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.00503602858342614</v>
+      </c>
+      <c r="C35">
+        <v>-0.03999488658988217</v>
+      </c>
+      <c r="D35">
+        <v>-0.01712180442499747</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.003831500728692925</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001140824312570074</v>
+      </c>
+      <c r="C36">
+        <v>-0.02478338628993424</v>
+      </c>
+      <c r="D36">
+        <v>-0.02218927625248427</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002224991702379613</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009554237850962967</v>
+      </c>
+      <c r="C38">
+        <v>-0.03537161961727533</v>
+      </c>
+      <c r="D38">
+        <v>-0.0153392393664559</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01163755055116368</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0005143081185817742</v>
+      </c>
+      <c r="C39">
+        <v>-0.1166614440964483</v>
+      </c>
+      <c r="D39">
+        <v>-0.07078406354078957</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009596917542173046</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002642606532824181</v>
+      </c>
+      <c r="C40">
+        <v>-0.08823033365261297</v>
+      </c>
+      <c r="D40">
+        <v>-0.01856717910642495</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0001224666232942732</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007259206066975665</v>
+      </c>
+      <c r="C41">
+        <v>-0.03756281509974273</v>
+      </c>
+      <c r="D41">
+        <v>-0.03400486601814066</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002823617398134694</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003980891066871683</v>
+      </c>
+      <c r="C43">
+        <v>-0.05319083137030375</v>
+      </c>
+      <c r="D43">
+        <v>-0.02323731481853108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.004760101332712649</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003428178306533683</v>
+      </c>
+      <c r="C44">
+        <v>-0.1098976408759853</v>
+      </c>
+      <c r="D44">
+        <v>-0.06915830681758954</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.0008797925359159482</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002249673518371813</v>
+      </c>
+      <c r="C46">
+        <v>-0.03368595175444718</v>
+      </c>
+      <c r="D46">
+        <v>-0.032616337609482</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0002713367376618973</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002682976299793433</v>
+      </c>
+      <c r="C47">
+        <v>-0.03722597607092566</v>
+      </c>
+      <c r="D47">
+        <v>-0.02241099308850941</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.00365329505032542</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006585079982751281</v>
+      </c>
+      <c r="C48">
+        <v>-0.03017867312461166</v>
+      </c>
+      <c r="D48">
+        <v>-0.03141740834535259</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.0119858658846891</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.0153258322169041</v>
+      </c>
+      <c r="C49">
+        <v>-0.1828744853993236</v>
+      </c>
+      <c r="D49">
+        <v>-0.01239391024452253</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001561356848308764</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003633561272233117</v>
+      </c>
+      <c r="C50">
+        <v>-0.04416258752854929</v>
+      </c>
+      <c r="D50">
+        <v>-0.03356307708386118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0008552797817581145</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004501090652993985</v>
+      </c>
+      <c r="C51">
+        <v>-0.026892963978465</v>
+      </c>
+      <c r="D51">
+        <v>-0.01860441088833413</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0007870618600851609</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02090351038314826</v>
+      </c>
+      <c r="C53">
+        <v>-0.1687780594697315</v>
+      </c>
+      <c r="D53">
+        <v>-0.02887713087518926</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001469493287571037</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008722906360374481</v>
+      </c>
+      <c r="C54">
+        <v>-0.05537988250937167</v>
+      </c>
+      <c r="D54">
+        <v>-0.04219070122887567</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003861006862160552</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009506555118420782</v>
+      </c>
+      <c r="C55">
+        <v>-0.1082752580338991</v>
+      </c>
+      <c r="D55">
+        <v>-0.03991754884630517</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002995141980080842</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02012615712758914</v>
+      </c>
+      <c r="C56">
+        <v>-0.1742931259315776</v>
+      </c>
+      <c r="D56">
+        <v>-0.02917547506923123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.006732028929726064</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01978338726664622</v>
+      </c>
+      <c r="C58">
+        <v>-0.1108858048017421</v>
+      </c>
+      <c r="D58">
+        <v>-0.05245396829239161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006858583638996985</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009689520517210115</v>
+      </c>
+      <c r="C59">
+        <v>-0.1610730396827946</v>
+      </c>
+      <c r="D59">
+        <v>0.3157134519807712</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.003670755751634327</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02383813428395778</v>
+      </c>
+      <c r="C60">
+        <v>-0.2207518120095392</v>
+      </c>
+      <c r="D60">
+        <v>-0.03333430571947315</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01344687557411814</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001637579423173688</v>
+      </c>
+      <c r="C61">
+        <v>-0.09600616277521561</v>
+      </c>
+      <c r="D61">
+        <v>-0.05721532724865249</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1637628791767294</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1448246517826111</v>
+      </c>
+      <c r="C62">
+        <v>-0.09179721159930936</v>
+      </c>
+      <c r="D62">
+        <v>-0.04657323327482994</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0009331568421697959</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006304904619003696</v>
+      </c>
+      <c r="C63">
+        <v>-0.05540287329996629</v>
+      </c>
+      <c r="D63">
+        <v>-0.02419187807513622</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.00032798589993844</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.015400902825106</v>
+      </c>
+      <c r="C64">
+        <v>-0.1057382860267646</v>
+      </c>
+      <c r="D64">
+        <v>-0.05934063055864643</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002778379558881475</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01804520869218087</v>
+      </c>
+      <c r="C65">
+        <v>-0.1232993558609949</v>
+      </c>
+      <c r="D65">
+        <v>-0.0191623970145482</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.00744562385592021</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01317839061196816</v>
+      </c>
+      <c r="C66">
+        <v>-0.160645419542486</v>
+      </c>
+      <c r="D66">
+        <v>-0.1127809521278303</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003583863638407049</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01573708128138583</v>
+      </c>
+      <c r="C67">
+        <v>-0.0662081682556214</v>
+      </c>
+      <c r="D67">
+        <v>-0.02504788207854599</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006590005537257009</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.000576924255206924</v>
+      </c>
+      <c r="C68">
+        <v>-0.08587981964003077</v>
+      </c>
+      <c r="D68">
+        <v>0.2561459121216901</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002148462919554619</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006182916776411289</v>
+      </c>
+      <c r="C69">
+        <v>-0.05059018837343587</v>
+      </c>
+      <c r="D69">
+        <v>-0.03737672293194064</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.0002790789120708388</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001896030981456703</v>
+      </c>
+      <c r="C70">
+        <v>-0.003047762256759159</v>
+      </c>
+      <c r="D70">
+        <v>-0.002855792852866044</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0005905016422734615</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005846018539539777</v>
+      </c>
+      <c r="C71">
+        <v>-0.09633876948845677</v>
+      </c>
+      <c r="D71">
+        <v>0.3063825596665846</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.003631794167533166</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01613066101766871</v>
+      </c>
+      <c r="C72">
+        <v>-0.1529241294553577</v>
+      </c>
+      <c r="D72">
+        <v>-0.02209630998559168</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01123401357245137</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.0308114994303407</v>
+      </c>
+      <c r="C73">
+        <v>-0.2793219707521136</v>
+      </c>
+      <c r="D73">
+        <v>-0.05114468899737976</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004522434565632473</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001996141505174173</v>
+      </c>
+      <c r="C74">
+        <v>-0.1048941009072264</v>
+      </c>
+      <c r="D74">
+        <v>-0.03610795120349931</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002409462416396612</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01099051287174888</v>
+      </c>
+      <c r="C75">
+        <v>-0.125493645601976</v>
+      </c>
+      <c r="D75">
+        <v>-0.02247668731051458</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009635259753028987</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.0218400580980266</v>
+      </c>
+      <c r="C76">
+        <v>-0.1489152907327744</v>
+      </c>
+      <c r="D76">
+        <v>-0.0596880695203128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001251433791703636</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02390473319013379</v>
+      </c>
+      <c r="C77">
+        <v>-0.1296551721481742</v>
+      </c>
+      <c r="D77">
+        <v>-0.08842912668690742</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.000448812853440889</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01479493079355749</v>
+      </c>
+      <c r="C78">
+        <v>-0.09565394104499168</v>
+      </c>
+      <c r="D78">
+        <v>-0.07057854277176948</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02277255084648066</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03763640501739825</v>
+      </c>
+      <c r="C79">
+        <v>-0.1548869104130508</v>
+      </c>
+      <c r="D79">
+        <v>-0.03391771606464466</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006502211819073871</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01050201630065421</v>
+      </c>
+      <c r="C80">
+        <v>-0.04116253154120296</v>
+      </c>
+      <c r="D80">
+        <v>-0.02930435855797808</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001406937178200477</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01543209708990285</v>
+      </c>
+      <c r="C81">
+        <v>-0.1272528497928522</v>
+      </c>
+      <c r="D81">
+        <v>-0.03850417515086857</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005871090475651802</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01982119117023366</v>
+      </c>
+      <c r="C82">
+        <v>-0.1410730281585736</v>
+      </c>
+      <c r="D82">
+        <v>-0.04158316980709965</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.007855555763918666</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01007720329377473</v>
+      </c>
+      <c r="C83">
+        <v>-0.05711360801031513</v>
+      </c>
+      <c r="D83">
+        <v>-0.05688664046588928</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01336469995471717</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01169988727987175</v>
+      </c>
+      <c r="C84">
+        <v>-0.03664986690157786</v>
+      </c>
+      <c r="D84">
+        <v>0.01091694818728941</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01370728683140682</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.0282137594818734</v>
+      </c>
+      <c r="C85">
+        <v>-0.1243227857171462</v>
+      </c>
+      <c r="D85">
+        <v>-0.04371527307168162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.00148744294627869</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.006056906424278503</v>
+      </c>
+      <c r="C86">
+        <v>-0.05073606066736872</v>
+      </c>
+      <c r="D86">
+        <v>-0.02122372672224323</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.004005619232882022</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.0102169271337604</v>
+      </c>
+      <c r="C87">
+        <v>-0.1306329105824987</v>
+      </c>
+      <c r="D87">
+        <v>-0.07086964703123086</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01180468448968868</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002783011823367256</v>
+      </c>
+      <c r="C88">
+        <v>-0.06705034265069722</v>
+      </c>
+      <c r="D88">
+        <v>-0.01333980299811526</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01402236327370859</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001383743291224845</v>
+      </c>
+      <c r="C89">
+        <v>-0.1467311629728875</v>
+      </c>
+      <c r="D89">
+        <v>0.3432517724755185</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002405437526051654</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006999098413808855</v>
+      </c>
+      <c r="C90">
+        <v>-0.1215231134345993</v>
+      </c>
+      <c r="D90">
+        <v>0.323065384175824</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0006718683365171215</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01050361119858154</v>
+      </c>
+      <c r="C91">
+        <v>-0.1022873870147596</v>
+      </c>
+      <c r="D91">
+        <v>-0.01925870012553353</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.007775750260103404</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0009262925389930118</v>
+      </c>
+      <c r="C92">
+        <v>-0.1358706605295209</v>
+      </c>
+      <c r="D92">
+        <v>0.3290195450370999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0003210790301244012</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004841386181917623</v>
+      </c>
+      <c r="C93">
+        <v>-0.1040878818905924</v>
+      </c>
+      <c r="D93">
+        <v>0.3057260454829698</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.00347704545137997</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.022643572046741</v>
+      </c>
+      <c r="C94">
+        <v>-0.1475746507859403</v>
+      </c>
+      <c r="D94">
+        <v>-0.05004885705241863</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004187990964591638</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01653083059257823</v>
+      </c>
+      <c r="C95">
+        <v>-0.1275745910019252</v>
+      </c>
+      <c r="D95">
+        <v>-0.05643376931933038</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.0003116827991746797</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03600642432652323</v>
+      </c>
+      <c r="C97">
+        <v>-0.2112106069863842</v>
+      </c>
+      <c r="D97">
+        <v>0.01059002286359709</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.003207385984905483</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03672601307743496</v>
+      </c>
+      <c r="C98">
+        <v>-0.2493135844558465</v>
+      </c>
+      <c r="D98">
+        <v>-0.04709412670340903</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9847796737780902</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9821652825198413</v>
+      </c>
+      <c r="C99">
+        <v>0.1166376774830491</v>
+      </c>
+      <c r="D99">
+        <v>0.02766431043095546</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.000978598045324095</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003253160493080365</v>
+      </c>
+      <c r="C101">
+        <v>-0.0497695952951111</v>
+      </c>
+      <c r="D101">
+        <v>-0.004667297102622953</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
